--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-669449.1136219879</v>
+        <v>-672108.6317339999</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.60152103201533</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>279.0939769563959</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>16.27832475849455</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>144.1798702554564</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>251.5930871097796</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>95.51546019344639</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>114.7053989184405</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>170.0022832520866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>283.4166567489848</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>196.6997841156799</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.5527601906374</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>74.08682336414029</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>63.8415564125923</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>178.8757728051413</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308921</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695169</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1158.553337363322</v>
+        <v>844.848651279277</v>
       </c>
       <c r="C2" t="n">
-        <v>1158.553337363322</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D2" t="n">
-        <v>800.2876387565714</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>414.4993861583271</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.153177427444</v>
+        <v>844.848651279277</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.3415305681976</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="C4" t="n">
-        <v>364.3415305681976</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D4" t="n">
-        <v>364.3415305681976</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>216.4284369858045</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4284369858045</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>216.4284369858045</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>67.68953884931074</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4516,22 +4516,22 @@
         <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.199744578928</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W4" t="n">
-        <v>766.7825745419675</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X4" t="n">
-        <v>766.7825745419675</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="Y4" t="n">
-        <v>545.9899953984374</v>
+        <v>844.4236553067615</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1876.125824262336</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="X5" t="n">
-        <v>1876.125824262336</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1876.125824262336</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081668</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.9439354791607</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9439354791607</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1362.143235557669</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1072.726065520708</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>844.7365146226908</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.9439354791607</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>760.1764888545185</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>760.1764888545185</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>349.190584064911</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>337.5262378296039</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.652677778257</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
         <v>614.5430248380223</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>307.730426513536</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4311299055728</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5180363231797</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6280888252693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,22 +6242,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2266.280484787188</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.8166630479718</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.8166630479718</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703798</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969314</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
-        <v>255.8421700460946</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26.38331831582093</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>348.2745247096961</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>197.779963162476</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>107.1439616996577</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.15051319650334</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.851674745297692e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1176462.009200633</v>
+        <v>1176462.009200632</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1176462.009200632</v>
+        <v>1176462.009200633</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1176462.009200633</v>
+        <v>1176462.009200632</v>
       </c>
     </row>
     <row r="8">
@@ -26332,19 +26332,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="L2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="L2" t="n">
-        <v>242143.9799070019</v>
-      </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.011722558</v>
+        <v>152035.0117225585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.18870809476357e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57631.2205393818</v>
+        <v>57631.22053938189</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.424496707363</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707368</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="M4" t="n">
-        <v>14888.28375980097</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.283759801</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26500,10 +26500,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539153</v>
+        <v>103164.1158539154</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539153</v>
+        <v>103164.1158539154</v>
       </c>
       <c r="O5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058049.656429677</v>
+        <v>-1058375.001519959</v>
       </c>
       <c r="C6" t="n">
-        <v>21465.03168781531</v>
+        <v>21465.03168781534</v>
       </c>
       <c r="D6" t="n">
-        <v>21465.03168781535</v>
+        <v>21465.0316878154</v>
       </c>
       <c r="E6" t="n">
-        <v>-373361.4160381584</v>
+        <v>-373396.1539635941</v>
       </c>
       <c r="F6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="G6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="H6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="I6" t="n">
-        <v>134124.0255863871</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="J6" t="n">
-        <v>-33481.15222359527</v>
+        <v>-33515.89014903085</v>
       </c>
       <c r="K6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="L6" t="n">
-        <v>134124.0255863876</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="M6" t="n">
-        <v>-23774.88037698955</v>
+        <v>-23774.88037698984</v>
       </c>
       <c r="N6" t="n">
-        <v>128260.1313455686</v>
+        <v>128260.1313455687</v>
       </c>
       <c r="O6" t="n">
-        <v>128260.1313455686</v>
+        <v>128260.1313455688</v>
       </c>
       <c r="P6" t="n">
-        <v>128260.1313455685</v>
+        <v>128260.1313455688</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26768,13 +26768,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>356.3505233476596</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213.767739610478</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>88.51827044540602</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>74.40478309663834</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>113.679804661228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>253.7255085239666</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>52.54142218018735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27831,7 +27831,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>82.13536007174139</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>17.60189581342058</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.5411846017331</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.24383501326317</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.4978299879545</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.652189661806915e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437241</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179115</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338216</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663312</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179115</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992796</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394754</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394744</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396449</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394754</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
